--- a/src/test/resources/case/EnterpriseJob.xlsx
+++ b/src/test/resources/case/EnterpriseJob.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,22 @@
   <si>
     <t>测试发布职位接口
 测试发布职位接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upjob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/job/upjob</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -574,6 +590,26 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -583,10 +619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,10 +642,11 @@
     <col min="13" max="13" width="7.625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.875" style="1"/>
+    <col min="16" max="16" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -655,8 +692,11 @@
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>

--- a/src/test/resources/case/EnterpriseJob.xlsx
+++ b/src/test/resources/case/EnterpriseJob.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expected" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +155,6 @@
   <si>
     <t>测试发布职位接口
 测试发布职位接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -536,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -592,10 +589,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -607,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -621,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -642,8 +639,7 @@
     <col min="13" max="13" width="7.625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.875" style="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -691,9 +687,6 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">

--- a/src/test/resources/case/EnterpriseJob.xlsx
+++ b/src/test/resources/case/EnterpriseJob.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5670" activeTab="1"/>
   </bookViews>
@@ -12,7 +12,6 @@
     <sheet name="Expected" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -616,16 +615,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
@@ -642,7 +641,7 @@
     <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -689,7 +688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
